--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45171</v>
+        <v>45172</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45172</v>
+        <v>45175</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45175</v>
+        <v>45177</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45177</v>
+        <v>45178</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45178</v>
+        <v>45179</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45179</v>
+        <v>45180</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45180</v>
+        <v>45181</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45181</v>
+        <v>45182</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45182</v>
+        <v>45184</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -623,27 +623,27 @@
         </is>
       </c>
       <c r="S2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/artfynd/A 70386-2018.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/artfynd/A 70386-2018.xlsx", "A 70386-2018")</f>
         <v/>
       </c>
       <c r="T2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/kartor/A 70386-2018.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/kartor/A 70386-2018.png", "A 70386-2018")</f>
         <v/>
       </c>
       <c r="V2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/klagomål/A 70386-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/klagomål/A 70386-2018.docx", "A 70386-2018")</f>
         <v/>
       </c>
       <c r="W2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/klagomålsmail/A 70386-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/klagomålsmail/A 70386-2018.docx", "A 70386-2018")</f>
         <v/>
       </c>
       <c r="X2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/tillsyn/A 70386-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/tillsyn/A 70386-2018.docx", "A 70386-2018")</f>
         <v/>
       </c>
       <c r="Y2">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/tillsynsmail/A 70386-2018.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/tillsynsmail/A 70386-2018.docx", "A 70386-2018")</f>
         <v/>
       </c>
     </row>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -708,27 +708,27 @@
         </is>
       </c>
       <c r="S3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/artfynd/A 34678-2021.xlsx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/artfynd/A 34678-2021.xlsx", "A 34678-2021")</f>
         <v/>
       </c>
       <c r="T3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/kartor/A 34678-2021.png")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/kartor/A 34678-2021.png", "A 34678-2021")</f>
         <v/>
       </c>
       <c r="V3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/klagomål/A 34678-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/klagomål/A 34678-2021.docx", "A 34678-2021")</f>
         <v/>
       </c>
       <c r="W3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/klagomålsmail/A 34678-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/klagomålsmail/A 34678-2021.docx", "A 34678-2021")</f>
         <v/>
       </c>
       <c r="X3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/tillsyn/A 34678-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/tillsyn/A 34678-2021.docx", "A 34678-2021")</f>
         <v/>
       </c>
       <c r="Y3">
-        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/tillsynsmail/A 34678-2021.docx")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_SOTENAS/tillsynsmail/A 34678-2021.docx", "A 34678-2021")</f>
         <v/>
       </c>
     </row>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45184</v>
+        <v>45186</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45186</v>
+        <v>45188</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45188</v>
+        <v>45189</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45189</v>
+        <v>45190</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45190</v>
+        <v>45192</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45192</v>
+        <v>45202</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45202</v>
+        <v>45203</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45203</v>
+        <v>45205</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/Översikt SOTENÄS.xlsx
+++ b/Översikt SOTENÄS.xlsx
@@ -572,7 +572,7 @@
         <v>43446</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -657,7 +657,7 @@
         <v>44381</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -742,7 +742,7 @@
         <v>43367</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -799,7 +799,7 @@
         <v>43381</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -856,7 +856,7 @@
         <v>43388</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -913,7 +913,7 @@
         <v>43430</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
         <v>43431</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1027,7 +1027,7 @@
         <v>43437</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1084,7 +1084,7 @@
         <v>43437</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1141,7 +1141,7 @@
         <v>43437</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1198,7 +1198,7 @@
         <v>43445</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1255,7 +1255,7 @@
         <v>43538</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1312,7 +1312,7 @@
         <v>43542</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1369,7 +1369,7 @@
         <v>43558</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1426,7 +1426,7 @@
         <v>43723</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1483,7 +1483,7 @@
         <v>43723</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1540,7 +1540,7 @@
         <v>43723</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1597,7 +1597,7 @@
         <v>43755</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1654,7 +1654,7 @@
         <v>43755</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1711,7 +1711,7 @@
         <v>43859</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1768,7 +1768,7 @@
         <v>43859</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1825,7 +1825,7 @@
         <v>43859</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1882,7 +1882,7 @@
         <v>43935</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1939,7 +1939,7 @@
         <v>44084</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
         <v>44096</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2053,7 +2053,7 @@
         <v>44111</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2110,7 +2110,7 @@
         <v>44111</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2167,7 +2167,7 @@
         <v>44270</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -2224,7 +2224,7 @@
         <v>44316</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -2281,7 +2281,7 @@
         <v>44320</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -2338,7 +2338,7 @@
         <v>44431</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -2395,7 +2395,7 @@
         <v>44431</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -2452,7 +2452,7 @@
         <v>44462</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -2509,7 +2509,7 @@
         <v>44550</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -2566,7 +2566,7 @@
         <v>44865</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -2623,7 +2623,7 @@
         <v>44952</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -2680,7 +2680,7 @@
         <v>45069</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -2737,7 +2737,7 @@
         <v>45076</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>45205</v>
+        <v>45206</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
